--- a/Instances/G5047534_NonStationary_b4_fe25_el_rk50_ll1_l40_HTrue_c0.xlsx
+++ b/Instances/G5047534_NonStationary_b4_fe25_el_rk50_ll1_l40_HTrue_c0.xlsx
@@ -1004,7 +1004,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="n">
-        <v>11.87813313802083</v>
+        <v>13.39825439453125</v>
       </c>
       <c r="I2" t="n">
         <v>448</v>
@@ -1036,7 +1036,7 @@
         <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>6.22662353515625</v>
+        <v>6.249348958333333</v>
       </c>
       <c r="I3" t="n">
         <v>496</v>
@@ -1068,7 +1068,7 @@
         <v>50</v>
       </c>
       <c r="H4" t="n">
-        <v>7.563395182291667</v>
+        <v>8.07354736328125</v>
       </c>
       <c r="I4" t="n">
         <v>492</v>
@@ -1100,7 +1100,7 @@
         <v>100</v>
       </c>
       <c r="H5" t="n">
-        <v>17.08961995442708</v>
+        <v>20.009765625</v>
       </c>
       <c r="I5" t="n">
         <v>444</v>
@@ -1427,16 +1427,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" t="n">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1462,16 +1462,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C5" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D5" t="n">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E5" t="n">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1497,16 +1497,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C6" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D6" t="n">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="E6" t="n">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="C7" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E7" t="n">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1567,16 +1567,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="C8" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D8" t="n">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="E8" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1602,16 +1602,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C9" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" t="n">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="E9" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1637,16 +1637,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D10" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E10" t="n">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1672,16 +1672,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C11" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D11" t="n">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E11" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1707,16 +1707,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C12" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1742,16 +1742,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="C13" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D13" t="n">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="E13" t="n">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1898,16 +1898,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>12.125</v>
       </c>
       <c r="C4" t="n">
-        <v>3.875</v>
+        <v>3.25</v>
       </c>
       <c r="D4" t="n">
-        <v>2.125</v>
+        <v>2.375</v>
       </c>
       <c r="E4" t="n">
-        <v>12.25</v>
+        <v>9.125</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1933,16 +1933,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.4375</v>
+        <v>9.375</v>
       </c>
       <c r="C5" t="n">
-        <v>5.8125</v>
+        <v>7.5</v>
       </c>
       <c r="D5" t="n">
-        <v>5.4375</v>
+        <v>13.3125</v>
       </c>
       <c r="E5" t="n">
-        <v>12.1875</v>
+        <v>26.25</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1968,16 +1968,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>18.15625</v>
+        <v>14.65625</v>
       </c>
       <c r="C6" t="n">
-        <v>8.96875</v>
+        <v>9.40625</v>
       </c>
       <c r="D6" t="n">
-        <v>3.0625</v>
+        <v>11.59375</v>
       </c>
       <c r="E6" t="n">
-        <v>11.375</v>
+        <v>21.21875</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2003,16 +2003,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9.140625</v>
+        <v>21.09375</v>
       </c>
       <c r="C7" t="n">
-        <v>10.546875</v>
+        <v>2.8125</v>
       </c>
       <c r="D7" t="n">
-        <v>10.546875</v>
+        <v>7.5</v>
       </c>
       <c r="E7" t="n">
-        <v>20.625</v>
+        <v>33.046875</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -2038,16 +2038,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19.1328125</v>
+        <v>10.65625</v>
       </c>
       <c r="C8" t="n">
-        <v>6.78125</v>
+        <v>5.328125</v>
       </c>
       <c r="D8" t="n">
-        <v>11.140625</v>
+        <v>15.984375</v>
       </c>
       <c r="E8" t="n">
-        <v>27.609375</v>
+        <v>29.3046875</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -2073,16 +2073,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19.93359375</v>
+        <v>23.625</v>
       </c>
       <c r="C9" t="n">
-        <v>10.3359375</v>
+        <v>10.58203125</v>
       </c>
       <c r="D9" t="n">
-        <v>11.07421875</v>
+        <v>15.50390625</v>
       </c>
       <c r="E9" t="n">
-        <v>12.796875</v>
+        <v>14.51953125</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -2108,16 +2108,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>17.115234375</v>
+        <v>16.8671875</v>
       </c>
       <c r="C10" t="n">
-        <v>6.44921875</v>
+        <v>8.9296875</v>
       </c>
       <c r="D10" t="n">
-        <v>3.47265625</v>
+        <v>8.43359375</v>
       </c>
       <c r="E10" t="n">
-        <v>6.697265625</v>
+        <v>20.587890625</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -2143,16 +2143,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20.6689453125</v>
+        <v>17.431640625</v>
       </c>
       <c r="C11" t="n">
-        <v>7.2216796875</v>
+        <v>11.2060546875</v>
       </c>
       <c r="D11" t="n">
-        <v>18.1787109375</v>
+        <v>15.9375</v>
       </c>
       <c r="E11" t="n">
-        <v>25.8984375</v>
+        <v>25.1513671875</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -2178,16 +2178,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>19.4619140625</v>
+        <v>17.21630859375</v>
       </c>
       <c r="C12" t="n">
-        <v>7.4853515625</v>
+        <v>6.986328125</v>
       </c>
       <c r="D12" t="n">
-        <v>2.24560546875</v>
+        <v>1.99609375</v>
       </c>
       <c r="E12" t="n">
-        <v>40.919921875</v>
+        <v>27.9453125</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -2213,16 +2213,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9.49072265625</v>
+        <v>17.732666015625</v>
       </c>
       <c r="C13" t="n">
-        <v>7.242919921875</v>
+        <v>8.9912109375</v>
       </c>
       <c r="D13" t="n">
-        <v>23.47705078125</v>
+        <v>4.245849609375</v>
       </c>
       <c r="E13" t="n">
-        <v>34.716064453125</v>
+        <v>32.9677734375</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>

--- a/Instances/G5047534_NonStationary_b4_fe25_el_rk50_ll1_l40_HTrue_c0.xlsx
+++ b/Instances/G5047534_NonStationary_b4_fe25_el_rk50_ll1_l40_HTrue_c0.xlsx
@@ -1004,7 +1004,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="n">
-        <v>13.39825439453125</v>
+        <v>12.8216552734375</v>
       </c>
       <c r="I2" t="n">
         <v>448</v>
@@ -1036,7 +1036,7 @@
         <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>6.249348958333333</v>
+        <v>5.182474772135417</v>
       </c>
       <c r="I3" t="n">
         <v>496</v>
@@ -1068,7 +1068,7 @@
         <v>50</v>
       </c>
       <c r="H4" t="n">
-        <v>8.07354736328125</v>
+        <v>10.654052734375</v>
       </c>
       <c r="I4" t="n">
         <v>492</v>
@@ -1100,7 +1100,7 @@
         <v>100</v>
       </c>
       <c r="H5" t="n">
-        <v>20.009765625</v>
+        <v>20.34733072916667</v>
       </c>
       <c r="I5" t="n">
         <v>444</v>
@@ -1427,16 +1427,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="E4" t="n">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1462,16 +1462,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="E5" t="n">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1497,16 +1497,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="C6" t="n">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E6" t="n">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E7" t="n">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1567,16 +1567,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" t="n">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="E8" t="n">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1602,16 +1602,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="C9" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D9" t="n">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E9" t="n">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1640,13 +1640,13 @@
         <v>68</v>
       </c>
       <c r="C10" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D10" t="n">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E10" t="n">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1672,16 +1672,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C11" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D11" t="n">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="E11" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1707,16 +1707,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C12" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="E12" t="n">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1742,16 +1742,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C13" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D13" t="n">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E13" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1898,16 +1898,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>12.125</v>
+        <v>8.125</v>
       </c>
       <c r="C4" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="D4" t="n">
-        <v>2.375</v>
+        <v>8.5</v>
       </c>
       <c r="E4" t="n">
-        <v>9.125</v>
+        <v>16.25</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1933,16 +1933,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9.375</v>
+        <v>13.5</v>
       </c>
       <c r="C5" t="n">
-        <v>7.5</v>
+        <v>6.1875</v>
       </c>
       <c r="D5" t="n">
-        <v>13.3125</v>
+        <v>5.8125</v>
       </c>
       <c r="E5" t="n">
-        <v>26.25</v>
+        <v>13.875</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1968,16 +1968,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14.65625</v>
+        <v>28.65625</v>
       </c>
       <c r="C6" t="n">
-        <v>9.40625</v>
+        <v>4.59375</v>
       </c>
       <c r="D6" t="n">
-        <v>11.59375</v>
+        <v>12.46875</v>
       </c>
       <c r="E6" t="n">
-        <v>21.21875</v>
+        <v>16.84375</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2003,16 +2003,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>21.09375</v>
+        <v>28.359375</v>
       </c>
       <c r="C7" t="n">
-        <v>2.8125</v>
+        <v>6.796875</v>
       </c>
       <c r="D7" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>33.046875</v>
+        <v>37.734375</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -2038,16 +2038,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>10.65625</v>
+        <v>5.0859375</v>
       </c>
       <c r="C8" t="n">
-        <v>5.328125</v>
+        <v>5.0859375</v>
       </c>
       <c r="D8" t="n">
-        <v>15.984375</v>
+        <v>4.1171875</v>
       </c>
       <c r="E8" t="n">
-        <v>29.3046875</v>
+        <v>23.9765625</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -2073,16 +2073,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>23.625</v>
+        <v>8.3671875</v>
       </c>
       <c r="C9" t="n">
-        <v>10.58203125</v>
+        <v>7.13671875</v>
       </c>
       <c r="D9" t="n">
-        <v>15.50390625</v>
+        <v>20.42578125</v>
       </c>
       <c r="E9" t="n">
-        <v>14.51953125</v>
+        <v>20.91796875</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -2111,13 +2111,13 @@
         <v>16.8671875</v>
       </c>
       <c r="C10" t="n">
-        <v>8.9296875</v>
+        <v>7.689453125</v>
       </c>
       <c r="D10" t="n">
-        <v>8.43359375</v>
+        <v>13.146484375</v>
       </c>
       <c r="E10" t="n">
-        <v>20.587890625</v>
+        <v>31.75</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -2143,16 +2143,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>17.431640625</v>
+        <v>13.9453125</v>
       </c>
       <c r="C11" t="n">
-        <v>11.2060546875</v>
+        <v>8.466796875</v>
       </c>
       <c r="D11" t="n">
-        <v>15.9375</v>
+        <v>20.419921875</v>
       </c>
       <c r="E11" t="n">
-        <v>25.1513671875</v>
+        <v>25.6494140625</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -2178,16 +2178,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>17.21630859375</v>
+        <v>16.4677734375</v>
       </c>
       <c r="C12" t="n">
-        <v>6.986328125</v>
+        <v>4.990234375</v>
       </c>
       <c r="D12" t="n">
-        <v>1.99609375</v>
+        <v>14.970703125</v>
       </c>
       <c r="E12" t="n">
-        <v>27.9453125</v>
+        <v>23.70361328125</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -2213,16 +2213,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>17.732666015625</v>
+        <v>14.48583984375</v>
       </c>
       <c r="C13" t="n">
-        <v>8.9912109375</v>
+        <v>7.742431640625</v>
       </c>
       <c r="D13" t="n">
-        <v>4.245849609375</v>
+        <v>12.9873046875</v>
       </c>
       <c r="E13" t="n">
-        <v>32.9677734375</v>
+        <v>33.46728515625</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>

--- a/Instances/G5047534_NonStationary_b4_fe25_el_rk50_ll1_l40_HTrue_c0.xlsx
+++ b/Instances/G5047534_NonStationary_b4_fe25_el_rk50_ll1_l40_HTrue_c0.xlsx
@@ -1004,7 +1004,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="n">
-        <v>12.8216552734375</v>
+        <v>13.07883707682292</v>
       </c>
       <c r="I2" t="n">
         <v>448</v>
@@ -1036,7 +1036,7 @@
         <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>5.182474772135417</v>
+        <v>6.24749755859375</v>
       </c>
       <c r="I3" t="n">
         <v>496</v>
@@ -1068,7 +1068,7 @@
         <v>50</v>
       </c>
       <c r="H4" t="n">
-        <v>10.654052734375</v>
+        <v>11.08339436848958</v>
       </c>
       <c r="I4" t="n">
         <v>492</v>
@@ -1100,7 +1100,7 @@
         <v>100</v>
       </c>
       <c r="H5" t="n">
-        <v>20.34733072916667</v>
+        <v>21.81715901692708</v>
       </c>
       <c r="I5" t="n">
         <v>444</v>
@@ -1427,16 +1427,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>39</v>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
         <v>65</v>
       </c>
-      <c r="C4" t="n">
-        <v>28</v>
-      </c>
-      <c r="D4" t="n">
-        <v>68</v>
-      </c>
       <c r="E4" t="n">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1462,16 +1462,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C5" t="n">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="D5" t="n">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E5" t="n">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1497,16 +1497,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="E6" t="n">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C7" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="E7" t="n">
-        <v>161</v>
+        <v>68</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1567,16 +1567,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="C8" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D8" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E8" t="n">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1602,16 +1602,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C9" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D9" t="n">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E9" t="n">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1637,16 +1637,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="C10" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" t="n">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="E10" t="n">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1672,16 +1672,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="C11" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E11" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1707,16 +1707,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D12" t="n">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="E12" t="n">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1742,16 +1742,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C13" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D13" t="n">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="E13" t="n">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1898,16 +1898,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>4.875</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="D4" t="n">
         <v>8.125</v>
       </c>
-      <c r="C4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.5</v>
-      </c>
       <c r="E4" t="n">
-        <v>16.25</v>
+        <v>14.625</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1933,16 +1933,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>13.5</v>
+        <v>12.5625</v>
       </c>
       <c r="C5" t="n">
-        <v>6.1875</v>
+        <v>10.875</v>
       </c>
       <c r="D5" t="n">
-        <v>5.8125</v>
+        <v>8.25</v>
       </c>
       <c r="E5" t="n">
-        <v>13.875</v>
+        <v>26.0625</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1968,16 +1968,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>28.65625</v>
+        <v>19.6875</v>
       </c>
       <c r="C6" t="n">
-        <v>4.59375</v>
+        <v>7.65625</v>
       </c>
       <c r="D6" t="n">
-        <v>12.46875</v>
+        <v>17.0625</v>
       </c>
       <c r="E6" t="n">
-        <v>16.84375</v>
+        <v>35.4375</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2003,16 +2003,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>28.359375</v>
+        <v>23.671875</v>
       </c>
       <c r="C7" t="n">
-        <v>6.796875</v>
+        <v>6.328125</v>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>10.546875</v>
       </c>
       <c r="E7" t="n">
-        <v>37.734375</v>
+        <v>15.9375</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -2038,16 +2038,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.0859375</v>
+        <v>22.0390625</v>
       </c>
       <c r="C8" t="n">
-        <v>5.0859375</v>
+        <v>8.234375</v>
       </c>
       <c r="D8" t="n">
-        <v>4.1171875</v>
+        <v>7.265625</v>
       </c>
       <c r="E8" t="n">
-        <v>23.9765625</v>
+        <v>44.5625</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -2073,16 +2073,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8.3671875</v>
+        <v>10.828125</v>
       </c>
       <c r="C9" t="n">
-        <v>7.13671875</v>
+        <v>8.859375</v>
       </c>
       <c r="D9" t="n">
-        <v>20.42578125</v>
+        <v>14.51953125</v>
       </c>
       <c r="E9" t="n">
-        <v>20.91796875</v>
+        <v>23.625</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -2108,16 +2108,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>16.8671875</v>
+        <v>8.681640625</v>
       </c>
       <c r="C10" t="n">
-        <v>7.689453125</v>
+        <v>7.44140625</v>
       </c>
       <c r="D10" t="n">
-        <v>13.146484375</v>
+        <v>19.34765625</v>
       </c>
       <c r="E10" t="n">
-        <v>31.75</v>
+        <v>35.71875</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -2143,16 +2143,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>13.9453125</v>
+        <v>28.1396484375</v>
       </c>
       <c r="C11" t="n">
-        <v>8.466796875</v>
+        <v>6.2255859375</v>
       </c>
       <c r="D11" t="n">
-        <v>20.419921875</v>
+        <v>15.6884765625</v>
       </c>
       <c r="E11" t="n">
-        <v>25.6494140625</v>
+        <v>26.6455078125</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -2178,16 +2178,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>16.4677734375</v>
+        <v>13.72314453125</v>
       </c>
       <c r="C12" t="n">
-        <v>4.990234375</v>
+        <v>7.984375</v>
       </c>
       <c r="D12" t="n">
-        <v>14.970703125</v>
+        <v>23.953125</v>
       </c>
       <c r="E12" t="n">
-        <v>23.70361328125</v>
+        <v>20.4599609375</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -2213,16 +2213,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>14.48583984375</v>
+        <v>12.737548828125</v>
       </c>
       <c r="C13" t="n">
-        <v>7.742431640625</v>
+        <v>9.740478515625</v>
       </c>
       <c r="D13" t="n">
-        <v>12.9873046875</v>
+        <v>8.241943359375</v>
       </c>
       <c r="E13" t="n">
-        <v>33.46728515625</v>
+        <v>18.731689453125</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
